--- a/data/loyn.xlsx
+++ b/data/loyn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhy163/Documents/Alex/Teaching/intro2R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhy163/Documents/Alex/Teaching/BI5009_repo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FEF442F-3A81-484B-A2D7-DE4FE8528BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A793630-7FBC-A04B-95E7-AA13553E53FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -112,13 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A58" sqref="A58:XFD726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.19921875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -536,10 +535,9 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
     <col min="3" max="8" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -564,10 +562,8 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -592,10 +588,8 @@
       <c r="H2" s="4">
         <v>160</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -621,10 +615,8 @@
       <c r="H3" s="4">
         <v>60</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A57" si="0">A3+1</f>
         <v>3</v>
@@ -650,10 +642,8 @@
       <c r="H4" s="4">
         <v>140</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -679,10 +669,8 @@
       <c r="H5" s="4">
         <v>160</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -708,10 +696,8 @@
       <c r="H6" s="4">
         <v>140</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -737,10 +723,8 @@
       <c r="H7" s="4">
         <v>130</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -766,10 +750,8 @@
       <c r="H8" s="4">
         <v>90</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -795,10 +777,8 @@
       <c r="H9" s="4">
         <v>60</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -824,10 +804,8 @@
       <c r="H10" s="4">
         <v>130</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -853,10 +831,8 @@
       <c r="H11" s="4">
         <v>130</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -882,10 +858,8 @@
       <c r="H12" s="4">
         <v>210</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -911,10 +885,8 @@
       <c r="H13" s="4">
         <v>160</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -940,10 +912,8 @@
       <c r="H14" s="4">
         <v>210</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -969,10 +939,8 @@
       <c r="H15" s="4">
         <v>210</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -998,10 +966,8 @@
       <c r="H16" s="4">
         <v>120</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1027,10 +993,8 @@
       <c r="H17" s="4">
         <v>145</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1056,10 +1020,8 @@
       <c r="H18" s="4">
         <v>110</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1085,10 +1047,8 @@
       <c r="H19" s="4">
         <v>140</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1114,10 +1074,8 @@
       <c r="H20" s="4">
         <v>190</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1143,10 +1101,8 @@
       <c r="H21" s="4">
         <v>90</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1172,10 +1128,8 @@
       <c r="H22" s="4">
         <v>220</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1201,10 +1155,8 @@
       <c r="H23" s="4">
         <v>120</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1230,10 +1182,8 @@
       <c r="H24" s="4">
         <v>130</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1259,10 +1209,8 @@
       <c r="H25" s="4">
         <v>100</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1288,10 +1236,8 @@
       <c r="H26" s="4">
         <v>170</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1317,10 +1263,8 @@
       <c r="H27" s="4">
         <v>150</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1346,10 +1290,8 @@
       <c r="H28" s="4">
         <v>130</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1375,10 +1317,8 @@
       <c r="H29" s="4">
         <v>210</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1404,10 +1344,8 @@
       <c r="H30" s="4">
         <v>120</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1433,10 +1371,8 @@
       <c r="H31" s="4">
         <v>90</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1462,10 +1398,8 @@
       <c r="H32" s="4">
         <v>110</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1491,10 +1425,8 @@
       <c r="H33" s="4">
         <v>175</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1520,10 +1452,8 @@
       <c r="H34" s="4">
         <v>110</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1549,10 +1479,8 @@
       <c r="H35" s="4">
         <v>200</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1578,10 +1506,8 @@
       <c r="H36" s="4">
         <v>190</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1607,10 +1533,8 @@
       <c r="H37" s="4">
         <v>120</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1636,10 +1560,8 @@
       <c r="H38" s="4">
         <v>100</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1665,10 +1587,8 @@
       <c r="H39" s="4">
         <v>190</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1694,10 +1614,8 @@
       <c r="H40" s="4">
         <v>150</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1723,10 +1641,8 @@
       <c r="H41" s="4">
         <v>90</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1752,10 +1668,8 @@
       <c r="H42" s="4">
         <v>140</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1781,10 +1695,8 @@
       <c r="H43" s="4">
         <v>130</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1810,10 +1722,8 @@
       <c r="H44" s="4">
         <v>190</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1839,10 +1749,8 @@
       <c r="H45" s="4">
         <v>110</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1868,10 +1776,8 @@
       <c r="H46" s="4">
         <v>120</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1897,10 +1803,8 @@
       <c r="H47" s="4">
         <v>190</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1926,10 +1830,8 @@
       <c r="H48" s="4">
         <v>120</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1955,10 +1857,8 @@
       <c r="H49" s="4">
         <v>180</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1984,10 +1884,8 @@
       <c r="H50" s="4">
         <v>140</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2013,10 +1911,8 @@
       <c r="H51" s="4">
         <v>165</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2042,10 +1938,8 @@
       <c r="H52" s="4">
         <v>175</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2071,10 +1965,8 @@
       <c r="H53" s="4">
         <v>70</v>
       </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2100,10 +1992,8 @@
       <c r="H54" s="4">
         <v>160</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2129,10 +2019,8 @@
       <c r="H55" s="4">
         <v>190</v>
       </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2158,10 +2046,8 @@
       <c r="H56" s="4">
         <v>190</v>
       </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2187,8 +2073,6 @@
       <c r="H57" s="4">
         <v>260</v>
       </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
